--- a/Fase 2/Evidencias Proyecto/Sprint 1/Sprint Planning y Backlog 1.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprint 1/Sprint Planning y Backlog 1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>Número</t>
   </si>
@@ -20,40 +20,46 @@
     <t>Historia de usuario</t>
   </si>
   <si>
-    <t>H07</t>
-  </si>
-  <si>
-    <t>Como medico quiero poder ver las citas medicas de mis pacientes para tener un control de mi agenda.</t>
-  </si>
-  <si>
-    <t>H08</t>
+    <t>E02-H07</t>
+  </si>
+  <si>
+    <t>Como medico quiero poder ver las citas medicas de mis pacientes para tener un control de mi agenda</t>
+  </si>
+  <si>
+    <t>E02-H08</t>
   </si>
   <si>
     <t>Como medico quiero poder gestionar las citas medicas de mis pacientes para tener un control de mi agenda.</t>
   </si>
   <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>Como medico quiero poder crear el historial medico de mi paciente para registrar sus diagnosticos y tratamientos.</t>
-  </si>
-  <si>
-    <t>H12</t>
+    <t>E03-H11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como medico quiero poder crear el historial medico de mi paciente para registrar sus diagnosticos y tratamientos.        </t>
+  </si>
+  <si>
+    <t>E03-H12</t>
   </si>
   <si>
     <t>Como medico quiero poder gestionar el historial medico de mis pacientes para registrar sus nuevos diagnosticos y tratamientos.</t>
   </si>
   <si>
-    <t>H14</t>
-  </si>
-  <si>
-    <t>Como médico quiero poder emitir recetas medicas para agilizar el proceso de prescripción de medicamentos.</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
+    <t>E06-H18</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder encontrar fácilmente la información de contacto de la página para poder comunicarse en caso de ser necesario.</t>
+  </si>
+  <si>
+    <t>E06-H20</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder enviar un mensaje a la empresa a través de un formulario de contacto en la página para realizar consultas o dejar comentarios.</t>
+  </si>
+  <si>
+    <t>E07-H21</t>
+  </si>
+  <si>
+    <t>Como usuario quiero moverme rápidamente hacia las distintas secciones de la pagina para una facil navegación</t>
   </si>
   <si>
     <t>Prioridad</t>
@@ -65,19 +71,22 @@
     <t>Media</t>
   </si>
   <si>
-    <t>H21</t>
-  </si>
-  <si>
-    <t>Como usuario quiero poder encontrar fácilmente la información de contacto de la página para poder comunicarse en caso de ser necesario.</t>
-  </si>
-  <si>
-    <t>H23</t>
-  </si>
-  <si>
-    <t>Como usuario quiero poder enviar un mensaje a la empresa a través de un formulario de contacto en la página para realizar consultas o dejar comentarios.</t>
-  </si>
-  <si>
     <t>Baja</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>8 hrs</t>
+  </si>
+  <si>
+    <t>13 hrs</t>
+  </si>
+  <si>
+    <t>5 hrs</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
   </si>
 </sst>
 </file>
@@ -100,11 +109,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -177,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -189,26 +198,18 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.88"/>
+    <col customWidth="1" min="1" max="1" width="9.5"/>
     <col customWidth="1" min="2" max="2" width="14.88"/>
     <col customWidth="1" min="6" max="6" width="12.88"/>
     <col customWidth="1" min="9" max="11" width="3.88"/>
@@ -509,6 +510,30 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
     <row r="11">
       <c r="A11" s="7"/>
     </row>
@@ -520,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>6</v>
@@ -534,35 +559,49 @@
       <c r="F13" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -595,11 +634,11 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
+      <c r="A4" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -608,10 +647,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -620,10 +659,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -632,10 +671,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -644,10 +683,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -656,10 +695,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -668,77 +707,141 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>21</v>
+      <c r="B24" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B10:F10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
